--- a/Files/Asignación de descansos.xlsx
+++ b/Files/Asignación de descansos.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <x:si>
     <x:t>Lunes</x:t>
   </x:si>
@@ -39,286 +39,301 @@
     <x:t>Sabado</x:t>
   </x:si>
   <x:si>
+    <x:t>YEIMY LORENA CUFIÑO PALACIO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MIGUEL DAVID PELAEZ LOPEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LEIDER CHRISTPHOFER GAITAN MELO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JESUS RENE LARA AGUDELO</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">LAURA YEUDIEL BARRERA ARIAS </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">DANIEL FELIPE ALVARADO RUSSI </x:t>
+  </x:si>
+  <x:si>
+    <x:t>YULANI ESTHER BARRAZA DI FILIPPO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ANDRES FELIPE CHALARCA RUEDA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JHOAN SEBASTIAN ALVAREZ GRANADOS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DAVID ANTONIO URIBE RIOS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SANTIAGO ARREDONDO ARISTIZABAL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LUIS STEVEN RINCON BONILLA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DILEIXY JOSEFINA GUTIERREZ CHACIN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JUAN PABLO ESCOBAR TABORDA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CAMILO RIVERA LADINO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CRISTIAN ALFONSO PASOS GOMEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JOSE DAVID GOMEZ TORO</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">KELLY YURANI RAMIREZ LARA </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">MAURO HUMBERTO VILLADA VILLADA </x:t>
+  </x:si>
+  <x:si>
+    <x:t>ADOLFO LEON CUARTAS MESA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DAVID ALEJANDRO SANCHEZ BURITICA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CATHERINE HIGUITA SOSSA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SEBASTIAN LOPEZ TRUJILLO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ADRIANA PATRICIA HERNÁNDEZ GÓMEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ELVER ANDRES RODRIGUEZ VERA </x:t>
+  </x:si>
+  <x:si>
+    <x:t>ANDRES FELIPE CARO GONZALEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">JUAN ESTEBAN CALLE LOPEZ </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">JHON MAURICIO MEDINA SASTOQUE </x:t>
+  </x:si>
+  <x:si>
+    <x:t>JUAN DAVID FLOREZ GONZALEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">DIANA MARCELA JARAMILLO SANCHEZ </x:t>
+  </x:si>
+  <x:si>
+    <x:t>DANNY ALEJANDRO OSPINA CEBALLOS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JUAN FERNANDO TABORDA PUERTA</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ALEJANDRO ESCARPETA GUTIERREZ </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">CAMILO BETANCUR HERNANDEZ </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">YEISON ALEXIS UPEGUI PRECIADO </x:t>
+  </x:si>
+  <x:si>
+    <x:t>LUISA URIBE CASTAÑO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JUAN ESTEBAN OSORIO LOPERA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JONATHAN ALEJANDRO CASTILLO PINZON</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JOHAN SEBASTIAN GIL LONDOÑO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SAMUEL MATEUS DIAZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">VERONICA DE LOS ANGELES PAVA RODRIGUEZ </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ANDREA CATALINA JARAMILLO DIAZ </x:t>
+  </x:si>
+  <x:si>
+    <x:t>JUAN CAMILO MANZANO BECERRA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JULIAN GOMEZ ARIAS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CARLOS ALBERTO MOLINA CADAVID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SANTIAGO ANDRES ALARCON GARCIA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EMMANUEL MONTES SERNA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ERIKA TATIANA SUAREZ CASTAÑEDA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IVAN DARIO ARROYAVE ARBOLEDA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CARLOS ANDRES ROJAS RESTREPO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CRISTIAN CAMILO QUIÑONES SANTAMARIA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EMANUEL GUILLERMO VALLEJO CADENA</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">NICOLAS SANTIAGO VILLATE BAQUERO </x:t>
+  </x:si>
+  <x:si>
+    <x:t>WENDY YULIETH TABORDA PUERTA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SEBASTIAN ALEXANDER MENDEZ CASTRO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JOHAN ESTEBAN GALEANO CARVAJAL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OSCAR JULIAN MARTIN CORREDOR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RAQUEL  XIMENA MENDIVELSO FERNANDEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">BRIAM NICOLAS SIERRA PINZON </x:t>
+  </x:si>
+  <x:si>
+    <x:t>ANNGI STEFANIA ALVARADO BAZAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DHAYANNA ALEXANDRA SANCHEZ JARAMILLO</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ANDREA FRANCO GARCIA </x:t>
+  </x:si>
+  <x:si>
+    <x:t>LAURA VALENTINA MALDONADO PEREZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LAURA VALENTINA HERNANDEZ ORTIZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MARIA FERNANDA CANTILLO CAMACHO</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">JUAN CAMILO GUERRERO GONZALEZ </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">DIEGO ANDRES PINZON QUINTERO </x:t>
+  </x:si>
+  <x:si>
+    <x:t>JEISSON CAMILO RODRIGUEZ VARON</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DANIELA GAVIRIA MENA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>YENIFER PATRICIA GUAJE NIÑO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FERNANDO HERNANDEZ CLIVIO</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">HENRY MATHEUS FERREIRA ALVEZ </x:t>
+  </x:si>
+  <x:si>
+    <x:t>SEBASTIAN RUIZ GALLEGO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JUAN PABLO DAVILA BEDOYA</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">BRYAN YESID GARCIA ANGEL </x:t>
+  </x:si>
+  <x:si>
+    <x:t>VALENTINA SEPULVEDA SEPULVEDA</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">NATALIA ANDREA MONTOYA MARTINEZ </x:t>
+  </x:si>
+  <x:si>
+    <x:t>MARIANA LOPEZ PEREZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">JUAN MANUEL MONTOYA ARTUNDUAGA </x:t>
+  </x:si>
+  <x:si>
+    <x:t>GERMAN ESTEVAN VALENCIA URIBE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MARLON DAVID VALENCIA PANDALES</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">NICOLE ANDREA ECHEVERRI REYES </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">MARIANA ANDREA OCHOA SUAREZ </x:t>
+  </x:si>
+  <x:si>
+    <x:t>DAVID DIAZ HERRERA</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">JHON EDINSON SALAZAR LEMUS </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">JUAN MANUEL DAVILA GOMEZ </x:t>
+  </x:si>
+  <x:si>
+    <x:t>ANDRES FELIPE LOPEZ PADILLA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SARA CAROLINA DURANGO MORALES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MARIA CAMILA MORALES GALEANO</x:t>
+  </x:si>
+  <x:si>
     <x:t>DANIEL CASTAÑO MERIDA</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">JHON EDINSON SALAZAR LEMUS </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">BRIAM NICOLAS SIERRA PINZON </x:t>
-  </x:si>
-  <x:si>
-    <x:t>DANIELA GAVIRIA MENA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DAVID ALEJANDRO SANCHEZ BURITICA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MIGUEL DAVID PELAEZ LOPEZ</x:t>
-  </x:si>
-  <x:si>
     <x:t>ANDRES FELIPE MARIN MORENO</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">JUAN MANUEL DAVILA GOMEZ </x:t>
-  </x:si>
-  <x:si>
-    <x:t>ANNGI STEFANIA ALVARADO BAZAN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>YENIFER PATRICIA GUAJE NIÑO</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">JUAN ESTEBAN CALLE LOPEZ </x:t>
-  </x:si>
-  <x:si>
-    <x:t>YEIMY LORENA CUFIÑO PALACIO</x:t>
-  </x:si>
-  <x:si>
     <x:t>JESUS JUNIOR LINARES FONTALVO</x:t>
   </x:si>
   <x:si>
-    <x:t>ANDRES FELIPE LOPEZ PADILLA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DHAYANNA ALEXANDRA SANCHEZ JARAMILLO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VALENTINA SEPULVEDA SEPULVEDA</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ALEJANDRO ESCARPETA GUTIERREZ </x:t>
-  </x:si>
-  <x:si>
-    <x:t>ANDRES FELIPE CHALARCA RUEDA</x:t>
-  </x:si>
-  <x:si>
     <x:t>ALEJANDRO VARGAS CARRILLO</x:t>
   </x:si>
   <x:si>
-    <x:t>SARA CAROLINA DURANGO MORALES</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ANDREA FRANCO GARCIA </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">NATALIA ANDREA MONTOYA MARTINEZ </x:t>
-  </x:si>
-  <x:si>
-    <x:t>JOHAN SEBASTIAN GIL LONDOÑO</x:t>
-  </x:si>
-  <x:si>
     <x:t>YULISSA RESTREPO ARANGO</x:t>
   </x:si>
   <x:si>
-    <x:t>MARIA CAMILA MORALES GALEANO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LAURA VALENTINA MALDONADO PEREZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MARIANA LOPEZ PEREZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CARLOS ALBERTO MOLINA CADAVID</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">MAURO HUMBERTO VILLADA VILLADA </x:t>
-  </x:si>
-  <x:si>
     <x:t>ANDREA MORALES MARIN</x:t>
   </x:si>
   <x:si>
-    <x:t>LAURA VALENTINA HERNANDEZ ORTIZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">JUAN MANUEL MONTOYA ARTUNDUAGA </x:t>
-  </x:si>
-  <x:si>
-    <x:t>CRISTIAN CAMILO QUIÑONES SANTAMARIA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>YULANI ESTHER BARRAZA DI FILIPPO</x:t>
-  </x:si>
-  <x:si>
     <x:t>MARIA ALEJANDRA BUITRAGO MONTOYA</x:t>
   </x:si>
   <x:si>
-    <x:t>MARIA FERNANDA CANTILLO CAMACHO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GERMAN ESTEVAN VALENCIA URIBE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>OSCAR JULIAN MARTIN CORREDOR</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ELVER ANDRES RODRIGUEZ VERA </x:t>
-  </x:si>
-  <x:si>
     <x:t>DYLAN ANDRES GARCIA ARIAS</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">JUAN CAMILO GUERRERO GONZALEZ </x:t>
-  </x:si>
-  <x:si>
-    <x:t>MARLON DAVID VALENCIA PANDALES</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SANTIAGO ARREDONDO ARISTIZABAL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DANNY ALEJANDRO OSPINA CEBALLOS</x:t>
-  </x:si>
-  <x:si>
     <x:t>DIEGO ALEJANDRO RINCON GARCIA</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">DIEGO ANDRES PINZON QUINTERO </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">NICOLE ANDREA ECHEVERRI REYES </x:t>
-  </x:si>
-  <x:si>
-    <x:t>CRISTIAN ALFONSO PASOS GOMEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DILEIXY JOSEFINA GUTIERREZ CHACIN</x:t>
-  </x:si>
-  <x:si>
     <x:t xml:space="preserve">LUIS ALFREDO GONZALEZ MERCADO </x:t>
-  </x:si>
-  <x:si>
-    <x:t>JEISSON CAMILO RODRIGUEZ VARON</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">MARIANA ANDREA OCHOA SUAREZ </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">JHON MAURICIO MEDINA SASTOQUE </x:t>
-  </x:si>
-  <x:si>
-    <x:t>JUAN ESTEBAN OSORIO LOPERA</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">KELLY YURANI RAMIREZ LARA </x:t>
-  </x:si>
-  <x:si>
-    <x:t>JUAN CAMILO MANZANO BECERRA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IVAN DARIO ARROYAVE ARBOLEDA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SEBASTIAN ALEXANDER MENDEZ CASTRO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LEIDER CHRISTPHOFER GAITAN MELO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JHOAN SEBASTIAN ALVAREZ GRANADOS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JUAN PABLO ESCOBAR TABORDA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ADRIANA PATRICIA HERNÁNDEZ GÓMEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ADOLFO LEON CUARTAS MESA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ANDRES FELIPE CARO GONZALEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JUAN FERNANDO TABORDA PUERTA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JONATHAN ALEJANDRO CASTILLO PINZON</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">DIANA MARCELA JARAMILLO SANCHEZ </x:t>
-  </x:si>
-  <x:si>
-    <x:t>JULIAN GOMEZ ARIAS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CARLOS ANDRES ROJAS RESTREPO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JOHAN ESTEBAN GALEANO CARVAJAL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JESUS RENE LARA AGUDELO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LUISA URIBE CASTAÑO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DAVID ANTONIO URIBE RIOS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CAMILO RIVERA LADINO</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ANDREA CATALINA JARAMILLO DIAZ </x:t>
-  </x:si>
-  <x:si>
-    <x:t>ERIKA TATIANA SUAREZ CASTAÑEDA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WENDY YULIETH TABORDA PUERTA</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">LAURA YEUDIEL BARRERA ARIAS </x:t>
-  </x:si>
-  <x:si>
-    <x:t>CATHERINE HIGUITA SOSSA</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">CAMILO BETANCUR HERNANDEZ </x:t>
-  </x:si>
-  <x:si>
-    <x:t>SAMUEL MATEUS DIAZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SANTIAGO ANDRES ALARCON GARCIA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EMANUEL GUILLERMO VALLEJO CADENA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RAQUEL  XIMENA MENDIVELSO FERNANDEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">DANIEL FELIPE ALVARADO RUSSI </x:t>
-  </x:si>
-  <x:si>
-    <x:t>LUIS STEVEN RINCON BONILLA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JOSE DAVID GOMEZ TORO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SEBASTIAN LOPEZ TRUJILLO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JUAN DAVID FLOREZ GONZALEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">YEISON ALEXIS UPEGUI PRECIADO </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">VERONICA DE LOS ANGELES PAVA RODRIGUEZ </x:t>
-  </x:si>
-  <x:si>
-    <x:t>EMMANUEL MONTES SERNA</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">NICOLAS SANTIAGO VILLATE BAQUERO </x:t>
-  </x:si>
-  <x:si>
-    <x:t>FERNANDO HERNANDEZ CLIVIO</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -732,39 +747,39 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B4" s="8" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C4" s="8" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="C4" s="8" t="s">
+      <x:c r="D4" s="8" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="D4" s="8" t="s">
+      <x:c r="E4" s="8" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="E4" s="8" t="s">
+      <x:c r="F4" s="4" t="s">
         <x:v>22</x:v>
-      </x:c>
-      <x:c r="F4" s="4" t="s">
-        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:26">
       <x:c r="A5" s="8" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B5" s="8" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="B5" s="8" t="s">
+      <x:c r="C5" s="8" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C5" s="8" t="s">
+      <x:c r="D5" s="8" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="D5" s="8" t="s">
+      <x:c r="E5" s="8" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="E5" s="8" t="s">
+      <x:c r="F5" s="5" t="s">
         <x:v>28</x:v>
-      </x:c>
-      <x:c r="F5" s="5" t="s">
-        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:26">
@@ -791,90 +806,100 @@
       <x:c r="A7" s="8" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="B7" s="8" t="s"/>
+      <x:c r="B7" s="8" t="s">
+        <x:v>36</x:v>
+      </x:c>
       <x:c r="C7" s="8" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D7" s="8" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E7" s="8" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F7" s="5" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:26">
       <x:c r="A8" s="8" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="B8" s="8" t="s"/>
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B8" s="8" t="s">
+        <x:v>42</x:v>
+      </x:c>
       <x:c r="C8" s="8" t="s">
-        <x:v>41</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="D8" s="8" t="s">
-        <x:v>42</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E8" s="8" t="s">
-        <x:v>43</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F8" s="5" t="s">
-        <x:v>44</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:26">
       <x:c r="A9" s="8" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="B9" s="8" t="s"/>
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B9" s="8" t="s">
+        <x:v>48</x:v>
+      </x:c>
       <x:c r="C9" s="8" t="s">
-        <x:v>46</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D9" s="8" t="s">
-        <x:v>47</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E9" s="8" t="s">
-        <x:v>48</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F9" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:26">
       <x:c r="A10" s="8" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="B10" s="8" t="s"/>
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B10" s="8" t="s">
+        <x:v>54</x:v>
+      </x:c>
       <x:c r="C10" s="8" t="s">
-        <x:v>51</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D10" s="8" t="s">
-        <x:v>52</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E10" s="8" t="s">
-        <x:v>53</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F10" s="5" t="s">
-        <x:v>54</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:26">
       <x:c r="A11" s="8" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="B11" s="8" t="s"/>
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="B11" s="8" t="s">
+        <x:v>60</x:v>
+      </x:c>
       <x:c r="C11" s="8" t="s">
-        <x:v>56</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D11" s="8" t="s">
-        <x:v>57</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E11" s="8" t="s">
-        <x:v>58</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F11" s="5" t="s">
-        <x:v>59</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:26">
@@ -884,7 +909,7 @@
       <x:c r="D12" s="8" t="s"/>
       <x:c r="E12" s="8" t="s"/>
       <x:c r="F12" s="5" t="s">
-        <x:v>60</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:26">
@@ -894,7 +919,7 @@
       <x:c r="D13" s="8" t="s"/>
       <x:c r="E13" s="8" t="s"/>
       <x:c r="F13" s="5" t="s">
-        <x:v>61</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:26">
@@ -904,7 +929,7 @@
       <x:c r="D14" s="8" t="s"/>
       <x:c r="E14" s="8" t="s"/>
       <x:c r="F14" s="5" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:26">
@@ -914,7 +939,7 @@
       <x:c r="D15" s="8" t="s"/>
       <x:c r="E15" s="8" t="s"/>
       <x:c r="F15" s="5" t="s">
-        <x:v>63</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:26">
@@ -924,7 +949,7 @@
       <x:c r="D16" s="8" t="s"/>
       <x:c r="E16" s="8" t="s"/>
       <x:c r="F16" s="5" t="s">
-        <x:v>64</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:26">
@@ -934,7 +959,7 @@
       <x:c r="D17" s="8" t="s"/>
       <x:c r="E17" s="8" t="s"/>
       <x:c r="F17" s="5" t="s">
-        <x:v>65</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:26">
@@ -944,7 +969,7 @@
       <x:c r="D18" s="8" t="s"/>
       <x:c r="E18" s="8" t="s"/>
       <x:c r="F18" s="5" t="s">
-        <x:v>66</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:26">
@@ -954,7 +979,7 @@
       <x:c r="D19" s="8" t="s"/>
       <x:c r="E19" s="8" t="s"/>
       <x:c r="F19" s="5" t="s">
-        <x:v>67</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:26">
@@ -964,7 +989,7 @@
       <x:c r="D20" s="8" t="s"/>
       <x:c r="E20" s="8" t="s"/>
       <x:c r="F20" s="5" t="s">
-        <x:v>68</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:26" customFormat="1" ht="15.75" customHeight="1">
@@ -974,7 +999,7 @@
       <x:c r="D21" s="8" t="s"/>
       <x:c r="E21" s="8" t="s"/>
       <x:c r="F21" s="5" t="s">
-        <x:v>69</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:26" customFormat="1" ht="15.75" customHeight="1">
@@ -984,7 +1009,7 @@
       <x:c r="D22" s="8" t="s"/>
       <x:c r="E22" s="8" t="s"/>
       <x:c r="F22" s="5" t="s">
-        <x:v>70</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:26" customFormat="1" ht="15.75" customHeight="1">
@@ -994,7 +1019,7 @@
       <x:c r="D23" s="8" t="s"/>
       <x:c r="E23" s="8" t="s"/>
       <x:c r="F23" s="5" t="s">
-        <x:v>71</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:26" customFormat="1" ht="15.75" customHeight="1">
@@ -1004,7 +1029,7 @@
       <x:c r="D24" s="8" t="s"/>
       <x:c r="E24" s="8" t="s"/>
       <x:c r="F24" s="5" t="s">
-        <x:v>72</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:26" customFormat="1" ht="15.75" customHeight="1">
@@ -1014,7 +1039,7 @@
       <x:c r="D25" s="8" t="s"/>
       <x:c r="E25" s="8" t="s"/>
       <x:c r="F25" s="5" t="s">
-        <x:v>73</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:26" customFormat="1" ht="15.75" customHeight="1">
@@ -1024,7 +1049,7 @@
       <x:c r="D26" s="8" t="s"/>
       <x:c r="E26" s="8" t="s"/>
       <x:c r="F26" s="5" t="s">
-        <x:v>74</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:26" customFormat="1" ht="15.75" customHeight="1">
@@ -1034,7 +1059,7 @@
       <x:c r="D27" s="8" t="s"/>
       <x:c r="E27" s="8" t="s"/>
       <x:c r="F27" s="5" t="s">
-        <x:v>75</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:26" customFormat="1" ht="15.75" customHeight="1">
@@ -1044,7 +1069,7 @@
       <x:c r="D28" s="8" t="s"/>
       <x:c r="E28" s="8" t="s"/>
       <x:c r="F28" s="5" t="s">
-        <x:v>76</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:26" customFormat="1" ht="15.75" customHeight="1">
@@ -1054,7 +1079,7 @@
       <x:c r="D29" s="8" t="s"/>
       <x:c r="E29" s="8" t="s"/>
       <x:c r="F29" s="5" t="s">
-        <x:v>77</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:26" customFormat="1" ht="15.75" customHeight="1">
@@ -1064,7 +1089,7 @@
       <x:c r="D30" s="8" t="s"/>
       <x:c r="E30" s="8" t="s"/>
       <x:c r="F30" s="5" t="s">
-        <x:v>78</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:26" customFormat="1" ht="15.75" customHeight="1">
@@ -1074,7 +1099,7 @@
       <x:c r="D31" s="8" t="s"/>
       <x:c r="E31" s="8" t="s"/>
       <x:c r="F31" s="5" t="s">
-        <x:v>79</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:26" customFormat="1" ht="15.75" customHeight="1">
@@ -1084,7 +1109,7 @@
       <x:c r="D32" s="8" t="s"/>
       <x:c r="E32" s="8" t="s"/>
       <x:c r="F32" s="5" t="s">
-        <x:v>80</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:26" customFormat="1" ht="15.75" customHeight="1">
@@ -1094,7 +1119,7 @@
       <x:c r="D33" s="8" t="s"/>
       <x:c r="E33" s="8" t="s"/>
       <x:c r="F33" s="5" t="s">
-        <x:v>81</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:26" customFormat="1" ht="15.75" customHeight="1">
@@ -1104,7 +1129,7 @@
       <x:c r="D34" s="8" t="s"/>
       <x:c r="E34" s="8" t="s"/>
       <x:c r="F34" s="5" t="s">
-        <x:v>82</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:26" customFormat="1" ht="15.75" customHeight="1">
@@ -1114,7 +1139,7 @@
       <x:c r="D35" s="8" t="s"/>
       <x:c r="E35" s="8" t="s"/>
       <x:c r="F35" s="5" t="s">
-        <x:v>83</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:26" customFormat="1" ht="15.75" customHeight="1">
@@ -1124,7 +1149,7 @@
       <x:c r="D36" s="8" t="s"/>
       <x:c r="E36" s="8" t="s"/>
       <x:c r="F36" s="5" t="s">
-        <x:v>84</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:26" customFormat="1" ht="15.75" customHeight="1">
@@ -1134,7 +1159,7 @@
       <x:c r="D37" s="8" t="s"/>
       <x:c r="E37" s="8" t="s"/>
       <x:c r="F37" s="8" t="s">
-        <x:v>85</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:26" customFormat="1" ht="15.75" customHeight="1">
@@ -1144,7 +1169,7 @@
       <x:c r="D38" s="8" t="s"/>
       <x:c r="E38" s="8" t="s"/>
       <x:c r="F38" s="8" t="s">
-        <x:v>86</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:26" customFormat="1" ht="15.75" customHeight="1">
@@ -1154,7 +1179,7 @@
       <x:c r="D39" s="8" t="s"/>
       <x:c r="E39" s="8" t="s"/>
       <x:c r="F39" s="8" t="s">
-        <x:v>87</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:26" customFormat="1" ht="15.75" customHeight="1">
@@ -1164,7 +1189,7 @@
       <x:c r="D40" s="8" t="s"/>
       <x:c r="E40" s="8" t="s"/>
       <x:c r="F40" s="8" t="s">
-        <x:v>88</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:26" customFormat="1" ht="15.75" customHeight="1">
@@ -1174,7 +1199,7 @@
       <x:c r="D41" s="8" t="s"/>
       <x:c r="E41" s="8" t="s"/>
       <x:c r="F41" s="8" t="s">
-        <x:v>89</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:26" customFormat="1" ht="15.75" customHeight="1">
@@ -1184,7 +1209,7 @@
       <x:c r="D42" s="8" t="s"/>
       <x:c r="E42" s="8" t="s"/>
       <x:c r="F42" s="8" t="s">
-        <x:v>90</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:26" customFormat="1" ht="15.75" customHeight="1">
@@ -1194,7 +1219,7 @@
       <x:c r="D43" s="8" t="s"/>
       <x:c r="E43" s="8" t="s"/>
       <x:c r="F43" s="8" t="s">
-        <x:v>91</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:26" customFormat="1" ht="15.75" customHeight="1">
@@ -1204,7 +1229,7 @@
       <x:c r="D44" s="8" t="s"/>
       <x:c r="E44" s="8" t="s"/>
       <x:c r="F44" s="8" t="s">
-        <x:v>92</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:26" customFormat="1" ht="15.75" customHeight="1">
@@ -1214,7 +1239,7 @@
       <x:c r="D45" s="8" t="s"/>
       <x:c r="E45" s="8" t="s"/>
       <x:c r="F45" s="8" t="s">
-        <x:v>93</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:26" customFormat="1" ht="15.75" customHeight="1">
@@ -1224,7 +1249,7 @@
       <x:c r="D46" s="8" t="s"/>
       <x:c r="E46" s="8" t="s"/>
       <x:c r="F46" s="8" t="s">
-        <x:v>94</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:26" customFormat="1" ht="15.75" customHeight="1">
@@ -1234,7 +1259,7 @@
       <x:c r="D47" s="8" t="s"/>
       <x:c r="E47" s="8" t="s"/>
       <x:c r="F47" s="8" t="s">
-        <x:v>95</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:26" customFormat="1" ht="15.75" customHeight="1">
@@ -1244,7 +1269,7 @@
       <x:c r="D48" s="8" t="s"/>
       <x:c r="E48" s="8" t="s"/>
       <x:c r="F48" s="8" t="s">
-        <x:v>96</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:26" customFormat="1" ht="15.75" customHeight="1">
@@ -1254,7 +1279,7 @@
       <x:c r="D49" s="8" t="s"/>
       <x:c r="E49" s="8" t="s"/>
       <x:c r="F49" s="8" t="s">
-        <x:v>97</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:26" customFormat="1" ht="15.75" customHeight="1">
@@ -1264,7 +1289,7 @@
       <x:c r="D50" s="8" t="s"/>
       <x:c r="E50" s="8" t="s"/>
       <x:c r="F50" s="8" t="s">
-        <x:v>98</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:26" customFormat="1" ht="15.75" customHeight="1">
@@ -1274,7 +1299,7 @@
       <x:c r="D51" s="8" t="s"/>
       <x:c r="E51" s="8" t="s"/>
       <x:c r="F51" s="8" t="s">
-        <x:v>99</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:26" customFormat="1" ht="15.75" customHeight="1">
